--- a/dataset/EJ4-clustering-consumos.xlsx
+++ b/dataset/EJ4-clustering-consumos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Gitlab\_Courses\introduccion_machinelearning\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive\03_Docencia\Curso Machine Learning\Curso 2023\curso-intro-machine-learning-2023\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDDBF38-A359-40A7-80D4-5EF9B71B0842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509108F-D344-419E-8ECE-91F1E93505F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y282"/>
+  <dimension ref="A1:Y257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,9 +768,6 @@
       <c r="H4">
         <v>1.1152500000000001</v>
       </c>
-      <c r="I4">
-        <v>1.3015000000000001</v>
-      </c>
       <c r="J4">
         <v>1.6852499999999999</v>
       </c>
@@ -20289,1933 +20286,8 @@
         <v>1.177</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A258" s="1">
-        <v>100257</v>
-      </c>
-      <c r="B258">
-        <v>1.0742499999999999</v>
-      </c>
-      <c r="C258">
-        <v>1.0225</v>
-      </c>
-      <c r="D258">
-        <v>0.97624999999999995</v>
-      </c>
-      <c r="E258">
-        <v>1.0954999999999999</v>
-      </c>
-      <c r="F258">
-        <v>0.98325000000000007</v>
-      </c>
-      <c r="G258">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="H258">
-        <v>1.02325</v>
-      </c>
-      <c r="I258">
-        <v>1.38975</v>
-      </c>
-      <c r="J258">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="K258">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="L258">
-        <v>1.98075</v>
-      </c>
-      <c r="M258">
-        <v>2.5270000000000001</v>
-      </c>
-      <c r="N258">
-        <v>2.655250000000001</v>
-      </c>
-      <c r="O258">
-        <v>2.5077500000000001</v>
-      </c>
-      <c r="P258">
-        <v>2.31325</v>
-      </c>
-      <c r="Q258">
-        <v>2.2395</v>
-      </c>
-      <c r="R258">
-        <v>2.2137500000000001</v>
-      </c>
-      <c r="S258">
-        <v>2.4329999999999998</v>
-      </c>
-      <c r="T258">
-        <v>3.52075</v>
-      </c>
-      <c r="U258">
-        <v>4.1357499999999998</v>
-      </c>
-      <c r="V258">
-        <v>2.202</v>
-      </c>
-      <c r="W258">
-        <v>2.1732499999999999</v>
-      </c>
-      <c r="X258">
-        <v>1.86625</v>
-      </c>
-      <c r="Y258">
-        <v>1.0095000000000001</v>
-      </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A259" s="1">
-        <v>100258</v>
-      </c>
-      <c r="B259">
-        <v>1.137</v>
-      </c>
-      <c r="C259">
-        <v>0.9375</v>
-      </c>
-      <c r="D259">
-        <v>1.1194999999999999</v>
-      </c>
-      <c r="E259">
-        <v>1.19025</v>
-      </c>
-      <c r="F259">
-        <v>0.97950000000000004</v>
-      </c>
-      <c r="G259">
-        <v>1.17275</v>
-      </c>
-      <c r="H259">
-        <v>1.1432500000000001</v>
-      </c>
-      <c r="I259">
-        <v>1.155</v>
-      </c>
-      <c r="J259">
-        <v>2.3282500000000002</v>
-      </c>
-      <c r="K259">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="L259">
-        <v>2.2912499999999998</v>
-      </c>
-      <c r="M259">
-        <v>2.5634999999999999</v>
-      </c>
-      <c r="N259">
-        <v>2.8054999999999999</v>
-      </c>
-      <c r="O259">
-        <v>2.1557499999999998</v>
-      </c>
-      <c r="P259">
-        <v>2.2014999999999998</v>
-      </c>
-      <c r="Q259">
-        <v>2.1739999999999999</v>
-      </c>
-      <c r="R259">
-        <v>2.2585000000000002</v>
-      </c>
-      <c r="S259">
-        <v>2.5267499999999998</v>
-      </c>
-      <c r="T259">
-        <v>2.5405000000000002</v>
-      </c>
-      <c r="U259">
-        <v>2.66825</v>
-      </c>
-      <c r="V259">
-        <v>2.7767499999999998</v>
-      </c>
-      <c r="W259">
-        <v>2.746</v>
-      </c>
-      <c r="X259">
-        <v>2.1577500000000001</v>
-      </c>
-      <c r="Y259">
-        <v>1.4684999999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A260" s="1">
-        <v>100259</v>
-      </c>
-      <c r="B260">
-        <v>1.1735</v>
-      </c>
-      <c r="C260">
-        <v>1.0825</v>
-      </c>
-      <c r="D260">
-        <v>1.1765000000000001</v>
-      </c>
-      <c r="E260">
-        <v>1.1855</v>
-      </c>
-      <c r="F260">
-        <v>1.06975</v>
-      </c>
-      <c r="G260">
-        <v>1.17825</v>
-      </c>
-      <c r="H260">
-        <v>1.2032499999999999</v>
-      </c>
-      <c r="I260">
-        <v>1.18275</v>
-      </c>
-      <c r="J260">
-        <v>1.8975</v>
-      </c>
-      <c r="K260">
-        <v>2.0910000000000002</v>
-      </c>
-      <c r="L260">
-        <v>2.0365000000000002</v>
-      </c>
-      <c r="M260">
-        <v>2.0982500000000002</v>
-      </c>
-      <c r="N260">
-        <v>2.1952500000000001</v>
-      </c>
-      <c r="O260">
-        <v>2.532</v>
-      </c>
-      <c r="P260">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="Q260">
-        <v>1.99725</v>
-      </c>
-      <c r="R260">
-        <v>2.1897500000000001</v>
-      </c>
-      <c r="S260">
-        <v>2.0365000000000002</v>
-      </c>
-      <c r="T260">
-        <v>2.6175000000000002</v>
-      </c>
-      <c r="U260">
-        <v>2.5405000000000002</v>
-      </c>
-      <c r="V260">
-        <v>2.5985</v>
-      </c>
-      <c r="W260">
-        <v>2.54175</v>
-      </c>
-      <c r="X260">
-        <v>1.9437500000000001</v>
-      </c>
-      <c r="Y260">
-        <v>1.4804999999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A261" s="1">
-        <v>100260</v>
-      </c>
-      <c r="B261">
-        <v>1.1952499999999999</v>
-      </c>
-      <c r="C261">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="D261">
-        <v>1.27125</v>
-      </c>
-      <c r="E261">
-        <v>1.06575</v>
-      </c>
-      <c r="F261">
-        <v>1.1132500000000001</v>
-      </c>
-      <c r="G261">
-        <v>1.05725</v>
-      </c>
-      <c r="H261">
-        <v>1.11175</v>
-      </c>
-      <c r="I261">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="J261">
-        <v>2.3969999999999998</v>
-      </c>
-      <c r="K261">
-        <v>2.16825</v>
-      </c>
-      <c r="L261">
-        <v>2.2642500000000001</v>
-      </c>
-      <c r="M261">
-        <v>2.4812500000000002</v>
-      </c>
-      <c r="N261">
-        <v>2.5797500000000002</v>
-      </c>
-      <c r="O261">
-        <v>2.33575</v>
-      </c>
-      <c r="P261">
-        <v>2.2032500000000002</v>
-      </c>
-      <c r="Q261">
-        <v>1.9837499999999999</v>
-      </c>
-      <c r="R261">
-        <v>1.956</v>
-      </c>
-      <c r="S261">
-        <v>2.0957499999999998</v>
-      </c>
-      <c r="T261">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U261">
-        <v>2.1372499999999999</v>
-      </c>
-      <c r="V261">
-        <v>2.3464999999999998</v>
-      </c>
-      <c r="W261">
-        <v>3.1272500000000001</v>
-      </c>
-      <c r="X261">
-        <v>3.1585000000000001</v>
-      </c>
-      <c r="Y261">
-        <v>0.92474999999999996</v>
-      </c>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A262" s="1">
-        <v>100261</v>
-      </c>
-      <c r="B262">
-        <v>1.2755000000000001</v>
-      </c>
-      <c r="C262">
-        <v>1.1052500000000001</v>
-      </c>
-      <c r="D262">
-        <v>1.0985</v>
-      </c>
-      <c r="E262">
-        <v>1.0142500000000001</v>
-      </c>
-      <c r="F262">
-        <v>1.1452500000000001</v>
-      </c>
-      <c r="G262">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="H262">
-        <v>1.1527499999999999</v>
-      </c>
-      <c r="I262">
-        <v>1.175</v>
-      </c>
-      <c r="J262">
-        <v>2.1309999999999998</v>
-      </c>
-      <c r="K262">
-        <v>2.4424999999999999</v>
-      </c>
-      <c r="L262">
-        <v>2.4397500000000001</v>
-      </c>
-      <c r="M262">
-        <v>2.7795000000000001</v>
-      </c>
-      <c r="N262">
-        <v>4.0927500000000014</v>
-      </c>
-      <c r="O262">
-        <v>2.3187500000000001</v>
-      </c>
-      <c r="P262">
-        <v>2.4162499999999998</v>
-      </c>
-      <c r="Q262">
-        <v>2.339</v>
-      </c>
-      <c r="R262">
-        <v>2.581</v>
-      </c>
-      <c r="S262">
-        <v>2.29</v>
-      </c>
-      <c r="T262">
-        <v>2.3075000000000001</v>
-      </c>
-      <c r="U262">
-        <v>2.4532500000000002</v>
-      </c>
-      <c r="V262">
-        <v>2.5407500000000001</v>
-      </c>
-      <c r="W262">
-        <v>2.1735000000000002</v>
-      </c>
-      <c r="X262">
-        <v>1.30975</v>
-      </c>
-      <c r="Y262">
-        <v>1.3120000000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A263" s="1">
-        <v>100262</v>
-      </c>
-      <c r="B263">
-        <v>1.4232499999999999</v>
-      </c>
-      <c r="C263">
-        <v>1.28775</v>
-      </c>
-      <c r="D263">
-        <v>1.24875</v>
-      </c>
-      <c r="E263">
-        <v>1.403</v>
-      </c>
-      <c r="F263">
-        <v>1.2725</v>
-      </c>
-      <c r="G263">
-        <v>1.31175</v>
-      </c>
-      <c r="H263">
-        <v>1.8245</v>
-      </c>
-      <c r="I263">
-        <v>1.4475</v>
-      </c>
-      <c r="J263">
-        <v>1.1795</v>
-      </c>
-      <c r="K263">
-        <v>1.55325</v>
-      </c>
-      <c r="L263">
-        <v>2.1755</v>
-      </c>
-      <c r="M263">
-        <v>2.3045</v>
-      </c>
-      <c r="N263">
-        <v>2.26925</v>
-      </c>
-      <c r="O263">
-        <v>2.1937500000000001</v>
-      </c>
-      <c r="P263">
-        <v>2.1702499999999998</v>
-      </c>
-      <c r="Q263">
-        <v>2.1712500000000001</v>
-      </c>
-      <c r="R263">
-        <v>2.1785000000000001</v>
-      </c>
-      <c r="S263">
-        <v>2.3025000000000002</v>
-      </c>
-      <c r="T263">
-        <v>2.2237499999999999</v>
-      </c>
-      <c r="U263">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="V263">
-        <v>2.3645</v>
-      </c>
-      <c r="W263">
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="X263">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="Y263">
-        <v>1.36625</v>
-      </c>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
-        <v>100263</v>
-      </c>
-      <c r="B264">
-        <v>1.3055000000000001</v>
-      </c>
-      <c r="C264">
-        <v>1.1637500000000001</v>
-      </c>
-      <c r="D264">
-        <v>1.2215</v>
-      </c>
-      <c r="E264">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="F264">
-        <v>1.0954999999999999</v>
-      </c>
-      <c r="G264">
-        <v>1.0974999999999999</v>
-      </c>
-      <c r="H264">
-        <v>1.2232499999999999</v>
-      </c>
-      <c r="I264">
-        <v>1.3125</v>
-      </c>
-      <c r="J264">
-        <v>1.87</v>
-      </c>
-      <c r="K264">
-        <v>1.9517500000000001</v>
-      </c>
-      <c r="L264">
-        <v>2.0565000000000002</v>
-      </c>
-      <c r="M264">
-        <v>2.0125000000000002</v>
-      </c>
-      <c r="N264">
-        <v>2.1192500000000001</v>
-      </c>
-      <c r="O264">
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="P264">
-        <v>2.0844999999999998</v>
-      </c>
-      <c r="Q264">
-        <v>2.0695000000000001</v>
-      </c>
-      <c r="R264">
-        <v>2.0514999999999999</v>
-      </c>
-      <c r="S264">
-        <v>2.0667499999999999</v>
-      </c>
-      <c r="T264">
-        <v>2.0215000000000001</v>
-      </c>
-      <c r="U264">
-        <v>2.3192499999999998</v>
-      </c>
-      <c r="V264">
-        <v>2.2545000000000002</v>
-      </c>
-      <c r="W264">
-        <v>2.2515000000000001</v>
-      </c>
-      <c r="X264">
-        <v>2.0605000000000002</v>
-      </c>
-      <c r="Y264">
-        <v>1.88775</v>
-      </c>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
-        <v>100264</v>
-      </c>
-      <c r="B265">
-        <v>1.3307500000000001</v>
-      </c>
-      <c r="C265">
-        <v>1.37425</v>
-      </c>
-      <c r="D265">
-        <v>1.31725</v>
-      </c>
-      <c r="E265">
-        <v>1.3827499999999999</v>
-      </c>
-      <c r="F265">
-        <v>1.3325</v>
-      </c>
-      <c r="G265">
-        <v>1.621</v>
-      </c>
-      <c r="H265">
-        <v>1.5115000000000001</v>
-      </c>
-      <c r="I265">
-        <v>1.57</v>
-      </c>
-      <c r="J265">
-        <v>1.9664999999999999</v>
-      </c>
-      <c r="K265">
-        <v>2.113</v>
-      </c>
-      <c r="L265">
-        <v>2.0129999999999999</v>
-      </c>
-      <c r="M265">
-        <v>2.30775</v>
-      </c>
-      <c r="N265">
-        <v>2.117</v>
-      </c>
-      <c r="O265">
-        <v>2.1385000000000001</v>
-      </c>
-      <c r="P265">
-        <v>2.2425000000000002</v>
-      </c>
-      <c r="Q265">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="R265">
-        <v>2.2204999999999999</v>
-      </c>
-      <c r="S265">
-        <v>2.177</v>
-      </c>
-      <c r="T265">
-        <v>2.1372499999999999</v>
-      </c>
-      <c r="U265">
-        <v>2.1502500000000002</v>
-      </c>
-      <c r="V265">
-        <v>2.13625</v>
-      </c>
-      <c r="W265">
-        <v>2.1147499999999999</v>
-      </c>
-      <c r="X265">
-        <v>1.972</v>
-      </c>
-      <c r="Y265">
-        <v>1.24525</v>
-      </c>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A266" s="1">
-        <v>100265</v>
-      </c>
-      <c r="B266">
-        <v>1.2675000000000001</v>
-      </c>
-      <c r="C266">
-        <v>1.3085</v>
-      </c>
-      <c r="D266">
-        <v>1.24725</v>
-      </c>
-      <c r="E266">
-        <v>1.3154999999999999</v>
-      </c>
-      <c r="F266">
-        <v>1.3187500000000001</v>
-      </c>
-      <c r="G266">
-        <v>1.2475000000000001</v>
-      </c>
-      <c r="H266">
-        <v>1.3547499999999999</v>
-      </c>
-      <c r="I266">
-        <v>1.3805000000000001</v>
-      </c>
-      <c r="J266">
-        <v>1.591</v>
-      </c>
-      <c r="K266">
-        <v>2.0209999999999999</v>
-      </c>
-      <c r="L266">
-        <v>2</v>
-      </c>
-      <c r="M266">
-        <v>2.34775</v>
-      </c>
-      <c r="N266">
-        <v>2.3835000000000002</v>
-      </c>
-      <c r="O266">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="P266">
-        <v>2.1019999999999999</v>
-      </c>
-      <c r="Q266">
-        <v>2.0427499999999998</v>
-      </c>
-      <c r="R266">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="S266">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="T266">
-        <v>2.2004999999999999</v>
-      </c>
-      <c r="U266">
-        <v>3.1395</v>
-      </c>
-      <c r="V266">
-        <v>4.5407500000000001</v>
-      </c>
-      <c r="W266">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="X266">
-        <v>2.032</v>
-      </c>
-      <c r="Y266">
-        <v>1.4677500000000001</v>
-      </c>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A267" s="1">
-        <v>100266</v>
-      </c>
-      <c r="B267">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="C267">
-        <v>1.41225</v>
-      </c>
-      <c r="D267">
-        <v>1.2482500000000001</v>
-      </c>
-      <c r="E267">
-        <v>1.4007499999999999</v>
-      </c>
-      <c r="F267">
-        <v>1.36175</v>
-      </c>
-      <c r="G267">
-        <v>1.3227500000000001</v>
-      </c>
-      <c r="H267">
-        <v>1.3432500000000001</v>
-      </c>
-      <c r="I267">
-        <v>1.488</v>
-      </c>
-      <c r="J267">
-        <v>1.7024999999999999</v>
-      </c>
-      <c r="K267">
-        <v>2.0252500000000002</v>
-      </c>
-      <c r="L267">
-        <v>1.87375</v>
-      </c>
-      <c r="M267">
-        <v>2.3530000000000002</v>
-      </c>
-      <c r="N267">
-        <v>2.4885000000000002</v>
-      </c>
-      <c r="O267">
-        <v>2.1997499999999999</v>
-      </c>
-      <c r="P267">
-        <v>2.1862499999999998</v>
-      </c>
-      <c r="Q267">
-        <v>2.4237500000000001</v>
-      </c>
-      <c r="R267">
-        <v>2.4017499999999998</v>
-      </c>
-      <c r="S267">
-        <v>2.3290000000000002</v>
-      </c>
-      <c r="T267">
-        <v>2.1675</v>
-      </c>
-      <c r="U267">
-        <v>2.20025</v>
-      </c>
-      <c r="V267">
-        <v>2.2902499999999999</v>
-      </c>
-      <c r="W267">
-        <v>2.26925</v>
-      </c>
-      <c r="X267">
-        <v>2.1615000000000002</v>
-      </c>
-      <c r="Y267">
-        <v>1.355</v>
-      </c>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A268" s="1">
-        <v>100267</v>
-      </c>
-      <c r="B268">
-        <v>1.1904999999999999</v>
-      </c>
-      <c r="C268">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="D268">
-        <v>1.13025</v>
-      </c>
-      <c r="E268">
-        <v>1.19225</v>
-      </c>
-      <c r="F268">
-        <v>0.99899999999999989</v>
-      </c>
-      <c r="G268">
-        <v>1.15625</v>
-      </c>
-      <c r="H268">
-        <v>1.1254999999999999</v>
-      </c>
-      <c r="I268">
-        <v>1.5927500000000001</v>
-      </c>
-      <c r="J268">
-        <v>2.0922499999999999</v>
-      </c>
-      <c r="K268">
-        <v>2.3395000000000001</v>
-      </c>
-      <c r="L268">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="M268">
-        <v>2.1487500000000002</v>
-      </c>
-      <c r="N268">
-        <v>2.0402499999999999</v>
-      </c>
-      <c r="O268">
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="P268">
-        <v>2.12025</v>
-      </c>
-      <c r="Q268">
-        <v>2.2109999999999999</v>
-      </c>
-      <c r="R268">
-        <v>2.1215000000000002</v>
-      </c>
-      <c r="S268">
-        <v>2.2222499999999998</v>
-      </c>
-      <c r="T268">
-        <v>2.0945</v>
-      </c>
-      <c r="U268">
-        <v>2.1782499999999998</v>
-      </c>
-      <c r="V268">
-        <v>2.0674999999999999</v>
-      </c>
-      <c r="W268">
-        <v>2.02</v>
-      </c>
-      <c r="X268">
-        <v>1.50325</v>
-      </c>
-      <c r="Y268">
-        <v>1.1479999999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A269" s="1">
-        <v>100268</v>
-      </c>
-      <c r="B269">
-        <v>0.97049999999999992</v>
-      </c>
-      <c r="C269">
-        <v>1.1267499999999999</v>
-      </c>
-      <c r="D269">
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="E269">
-        <v>1.00925</v>
-      </c>
-      <c r="F269">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G269">
-        <v>1.119</v>
-      </c>
-      <c r="H269">
-        <v>1.0355000000000001</v>
-      </c>
-      <c r="I269">
-        <v>1.1515</v>
-      </c>
-      <c r="J269">
-        <v>1.9045000000000001</v>
-      </c>
-      <c r="K269">
-        <v>2.161</v>
-      </c>
-      <c r="L269">
-        <v>2.2717499999999999</v>
-      </c>
-      <c r="M269">
-        <v>2.4994999999999998</v>
-      </c>
-      <c r="N269">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="O269">
-        <v>3.2512500000000002</v>
-      </c>
-      <c r="P269">
-        <v>2.8627500000000001</v>
-      </c>
-      <c r="Q269">
-        <v>2.61775</v>
-      </c>
-      <c r="R269">
-        <v>2.25</v>
-      </c>
-      <c r="S269">
-        <v>5.2987500000000001</v>
-      </c>
-      <c r="T269">
-        <v>2.8439999999999999</v>
-      </c>
-      <c r="U269">
-        <v>2.2555000000000001</v>
-      </c>
-      <c r="V269">
-        <v>1.9824999999999999</v>
-      </c>
-      <c r="W269">
-        <v>1.4277500000000001</v>
-      </c>
-      <c r="X269">
-        <v>1.2837499999999999</v>
-      </c>
-      <c r="Y269">
-        <v>1.1635</v>
-      </c>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A270" s="1">
-        <v>100269</v>
-      </c>
-      <c r="B270">
-        <v>0.96650000000000014</v>
-      </c>
-      <c r="C270">
-        <v>0.91149999999999998</v>
-      </c>
-      <c r="D270">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="E270">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="F270">
-        <v>0.83774999999999988</v>
-      </c>
-      <c r="G270">
-        <v>1.0322499999999999</v>
-      </c>
-      <c r="H270">
-        <v>0.87924999999999998</v>
-      </c>
-      <c r="I270">
-        <v>1.2235</v>
-      </c>
-      <c r="J270">
-        <v>1.1924999999999999</v>
-      </c>
-      <c r="K270">
-        <v>2.0095000000000001</v>
-      </c>
-      <c r="L270">
-        <v>2.3267500000000001</v>
-      </c>
-      <c r="M270">
-        <v>3.7315</v>
-      </c>
-      <c r="N270">
-        <v>2.3032499999999998</v>
-      </c>
-      <c r="O270">
-        <v>2.3490000000000002</v>
-      </c>
-      <c r="P270">
-        <v>2.3387500000000001</v>
-      </c>
-      <c r="Q270">
-        <v>2.024</v>
-      </c>
-      <c r="R270">
-        <v>1.9975000000000001</v>
-      </c>
-      <c r="S270">
-        <v>1.9657500000000001</v>
-      </c>
-      <c r="T270">
-        <v>1.95675</v>
-      </c>
-      <c r="U270">
-        <v>2.3115000000000001</v>
-      </c>
-      <c r="V270">
-        <v>2.2269999999999999</v>
-      </c>
-      <c r="W270">
-        <v>2.1422500000000002</v>
-      </c>
-      <c r="X270">
-        <v>1.361</v>
-      </c>
-      <c r="Y270">
-        <v>1.05925</v>
-      </c>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A271" s="1">
-        <v>100270</v>
-      </c>
-      <c r="B271">
-        <v>1.0017499999999999</v>
-      </c>
-      <c r="C271">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="D271">
-        <v>0.92374999999999985</v>
-      </c>
-      <c r="E271">
-        <v>0.94825000000000004</v>
-      </c>
-      <c r="F271">
-        <v>0.80449999999999999</v>
-      </c>
-      <c r="G271">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H271">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I271">
-        <v>1.7237499999999999</v>
-      </c>
-      <c r="J271">
-        <v>1.68875</v>
-      </c>
-      <c r="K271">
-        <v>2.1890000000000001</v>
-      </c>
-      <c r="L271">
-        <v>2.536</v>
-      </c>
-      <c r="M271">
-        <v>2.0085000000000002</v>
-      </c>
-      <c r="N271">
-        <v>2.4685000000000001</v>
-      </c>
-      <c r="O271">
-        <v>2.1517499999999998</v>
-      </c>
-      <c r="P271">
-        <v>5.4089999999999998</v>
-      </c>
-      <c r="Q271">
-        <v>2.24675</v>
-      </c>
-      <c r="R271">
-        <v>2.4055</v>
-      </c>
-      <c r="S271">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="T271">
-        <v>2.3812500000000001</v>
-      </c>
-      <c r="U271">
-        <v>2.392749999999999</v>
-      </c>
-      <c r="V271">
-        <v>2.64175</v>
-      </c>
-      <c r="W271">
-        <v>2.64825</v>
-      </c>
-      <c r="X271">
-        <v>2.3119999999999998</v>
-      </c>
-      <c r="Y271">
-        <v>1.9944999999999999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A272" s="1">
-        <v>100271</v>
-      </c>
-      <c r="B272">
-        <v>1.208</v>
-      </c>
-      <c r="C272">
-        <v>1.1857500000000001</v>
-      </c>
-      <c r="D272">
-        <v>1.1517500000000001</v>
-      </c>
-      <c r="E272">
-        <v>1.1675</v>
-      </c>
-      <c r="F272">
-        <v>1.21275</v>
-      </c>
-      <c r="G272">
-        <v>1.13825</v>
-      </c>
-      <c r="H272">
-        <v>1.125</v>
-      </c>
-      <c r="I272">
-        <v>1.2144999999999999</v>
-      </c>
-      <c r="J272">
-        <v>2.05375</v>
-      </c>
-      <c r="K272">
-        <v>2.242</v>
-      </c>
-      <c r="L272">
-        <v>2.2847499999999998</v>
-      </c>
-      <c r="M272">
-        <v>2.6230000000000002</v>
-      </c>
-      <c r="N272">
-        <v>2.2757499999999999</v>
-      </c>
-      <c r="O272">
-        <v>2.0942500000000002</v>
-      </c>
-      <c r="P272">
-        <v>2.1447500000000002</v>
-      </c>
-      <c r="Q272">
-        <v>2.5172500000000002</v>
-      </c>
-      <c r="R272">
-        <v>2.6274999999999999</v>
-      </c>
-      <c r="S272">
-        <v>2.4895</v>
-      </c>
-      <c r="T272">
-        <v>2.7610000000000001</v>
-      </c>
-      <c r="U272">
-        <v>2.6760000000000002</v>
-      </c>
-      <c r="V272">
-        <v>2.57525</v>
-      </c>
-      <c r="W272">
-        <v>2.2417500000000001</v>
-      </c>
-      <c r="X272">
-        <v>1.29375</v>
-      </c>
-      <c r="Y272">
-        <v>1.0507500000000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A273" s="1">
-        <v>100272</v>
-      </c>
-      <c r="B273">
-        <v>1.01675</v>
-      </c>
-      <c r="C273">
-        <v>1.09175</v>
-      </c>
-      <c r="D273">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="E273">
-        <v>1.1212500000000001</v>
-      </c>
-      <c r="F273">
-        <v>1.12975</v>
-      </c>
-      <c r="G273">
-        <v>1.0607500000000001</v>
-      </c>
-      <c r="H273">
-        <v>1.05975</v>
-      </c>
-      <c r="I273">
-        <v>1.16025</v>
-      </c>
-      <c r="J273">
-        <v>2.016</v>
-      </c>
-      <c r="K273">
-        <v>2.0305</v>
-      </c>
-      <c r="L273">
-        <v>2.3962500000000002</v>
-      </c>
-      <c r="M273">
-        <v>2.1505000000000001</v>
-      </c>
-      <c r="N273">
-        <v>4.0529999999999999</v>
-      </c>
-      <c r="O273">
-        <v>2.2010000000000001</v>
-      </c>
-      <c r="P273">
-        <v>1.9572499999999999</v>
-      </c>
-      <c r="Q273">
-        <v>1.99125</v>
-      </c>
-      <c r="R273">
-        <v>2.0514999999999999</v>
-      </c>
-      <c r="S273">
-        <v>2.1757499999999999</v>
-      </c>
-      <c r="T273">
-        <v>2.3165</v>
-      </c>
-      <c r="U273">
-        <v>2.2134999999999998</v>
-      </c>
-      <c r="V273">
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="W273">
-        <v>2.3162500000000001</v>
-      </c>
-      <c r="X273">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="Y273">
-        <v>1.73925</v>
-      </c>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A274" s="1">
-        <v>100273</v>
-      </c>
-      <c r="B274">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C274">
-        <v>1.022</v>
-      </c>
-      <c r="D274">
-        <v>0.95974999999999999</v>
-      </c>
-      <c r="E274">
-        <v>1.0262500000000001</v>
-      </c>
-      <c r="F274">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="G274">
-        <v>1.1265000000000001</v>
-      </c>
-      <c r="H274">
-        <v>1.0165</v>
-      </c>
-      <c r="I274">
-        <v>1.05375</v>
-      </c>
-      <c r="J274">
-        <v>1.7424999999999999</v>
-      </c>
-      <c r="K274">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="L274">
-        <v>2.3952499999999999</v>
-      </c>
-      <c r="M274">
-        <v>2.5855000000000001</v>
-      </c>
-      <c r="N274">
-        <v>2.5967500000000001</v>
-      </c>
-      <c r="O274">
-        <v>2.1484999999999999</v>
-      </c>
-      <c r="P274">
-        <v>2.1712500000000001</v>
-      </c>
-      <c r="Q274">
-        <v>2.1629999999999998</v>
-      </c>
-      <c r="R274">
-        <v>2.4095</v>
-      </c>
-      <c r="S274">
-        <v>2.5887500000000001</v>
-      </c>
-      <c r="T274">
-        <v>2.2152500000000002</v>
-      </c>
-      <c r="U274">
-        <v>2.55775</v>
-      </c>
-      <c r="V274">
-        <v>2.6117499999999998</v>
-      </c>
-      <c r="W274">
-        <v>2.9672499999999999</v>
-      </c>
-      <c r="X274">
-        <v>2.2617500000000001</v>
-      </c>
-      <c r="Y274">
-        <v>1.3154999999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A275" s="1">
-        <v>100274</v>
-      </c>
-      <c r="B275">
-        <v>1.13375</v>
-      </c>
-      <c r="C275">
-        <v>1.1812499999999999</v>
-      </c>
-      <c r="D275">
-        <v>1.13175</v>
-      </c>
-      <c r="E275">
-        <v>1.26925</v>
-      </c>
-      <c r="F275">
-        <v>1.13575</v>
-      </c>
-      <c r="G275">
-        <v>1.3835</v>
-      </c>
-      <c r="H275">
-        <v>1.302</v>
-      </c>
-      <c r="I275">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="J275">
-        <v>4.7204999999999986</v>
-      </c>
-      <c r="K275">
-        <v>2.9864999999999999</v>
-      </c>
-      <c r="L275">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="M275">
-        <v>3.218</v>
-      </c>
-      <c r="N275">
-        <v>2.4577499999999999</v>
-      </c>
-      <c r="O275">
-        <v>2.1412499999999999</v>
-      </c>
-      <c r="P275">
-        <v>2.1795</v>
-      </c>
-      <c r="Q275">
-        <v>2.5175000000000001</v>
-      </c>
-      <c r="R275">
-        <v>2.3952499999999999</v>
-      </c>
-      <c r="S275">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="T275">
-        <v>3.1915</v>
-      </c>
-      <c r="U275">
-        <v>2.4089999999999998</v>
-      </c>
-      <c r="V275">
-        <v>2.6444999999999999</v>
-      </c>
-      <c r="W275">
-        <v>2.37</v>
-      </c>
-      <c r="X275">
-        <v>2.0905</v>
-      </c>
-      <c r="Y275">
-        <v>1.7622500000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A276" s="1">
-        <v>100275</v>
-      </c>
-      <c r="B276">
-        <v>1.36375</v>
-      </c>
-      <c r="C276">
-        <v>1.2907500000000001</v>
-      </c>
-      <c r="D276">
-        <v>1.28975</v>
-      </c>
-      <c r="E276">
-        <v>1.23275</v>
-      </c>
-      <c r="F276">
-        <v>1.06925</v>
-      </c>
-      <c r="G276">
-        <v>1.18275</v>
-      </c>
-      <c r="H276">
-        <v>1.16825</v>
-      </c>
-      <c r="I276">
-        <v>1.76525</v>
-      </c>
-      <c r="J276">
-        <v>2.2275</v>
-      </c>
-      <c r="K276">
-        <v>2.3435000000000001</v>
-      </c>
-      <c r="L276">
-        <v>2.2842500000000001</v>
-      </c>
-      <c r="M276">
-        <v>2.5847500000000001</v>
-      </c>
-      <c r="N276">
-        <v>2.60975</v>
-      </c>
-      <c r="O276">
-        <v>2.4445000000000001</v>
-      </c>
-      <c r="P276">
-        <v>2.3395000000000001</v>
-      </c>
-      <c r="Q276">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="R276">
-        <v>2.6215000000000002</v>
-      </c>
-      <c r="S276">
-        <v>4.5827499999999999</v>
-      </c>
-      <c r="T276">
-        <v>6.0742500000000001</v>
-      </c>
-      <c r="U276">
-        <v>4.8055000000000003</v>
-      </c>
-      <c r="V276">
-        <v>3.892749999999999</v>
-      </c>
-      <c r="W276">
-        <v>2.60575</v>
-      </c>
-      <c r="X276">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="Y276">
-        <v>1.25275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A277" s="1">
-        <v>100276</v>
-      </c>
-      <c r="B277">
-        <v>1.2344999999999999</v>
-      </c>
-      <c r="C277">
-        <v>1.03125</v>
-      </c>
-      <c r="D277">
-        <v>1.06975</v>
-      </c>
-      <c r="E277">
-        <v>1.0405</v>
-      </c>
-      <c r="F277">
-        <v>0.99649999999999994</v>
-      </c>
-      <c r="G277">
-        <v>1.08775</v>
-      </c>
-      <c r="H277">
-        <v>1.14175</v>
-      </c>
-      <c r="I277">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="J277">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="K277">
-        <v>2.49275</v>
-      </c>
-      <c r="L277">
-        <v>2.4005000000000001</v>
-      </c>
-      <c r="M277">
-        <v>2.3022499999999999</v>
-      </c>
-      <c r="N277">
-        <v>5.4002499999999998</v>
-      </c>
-      <c r="O277">
-        <v>2.49675</v>
-      </c>
-      <c r="P277">
-        <v>2.2965</v>
-      </c>
-      <c r="Q277">
-        <v>2.1817500000000001</v>
-      </c>
-      <c r="R277">
-        <v>2.4592499999999999</v>
-      </c>
-      <c r="S277">
-        <v>2.4057499999999998</v>
-      </c>
-      <c r="T277">
-        <v>2.4384999999999999</v>
-      </c>
-      <c r="U277">
-        <v>2.452</v>
-      </c>
-      <c r="V277">
-        <v>2.4432499999999999</v>
-      </c>
-      <c r="W277">
-        <v>2.48325</v>
-      </c>
-      <c r="X277">
-        <v>1.42625</v>
-      </c>
-      <c r="Y277">
-        <v>1.0882499999999999</v>
-      </c>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A278" s="1">
-        <v>100277</v>
-      </c>
-      <c r="B278">
-        <v>1.0215000000000001</v>
-      </c>
-      <c r="C278">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="D278">
-        <v>1.16275</v>
-      </c>
-      <c r="E278">
-        <v>1.046</v>
-      </c>
-      <c r="F278">
-        <v>0.9232499999999999</v>
-      </c>
-      <c r="G278">
-        <v>1.0407500000000001</v>
-      </c>
-      <c r="H278">
-        <v>1.13625</v>
-      </c>
-      <c r="I278">
-        <v>1.2967500000000001</v>
-      </c>
-      <c r="J278">
-        <v>4.2237499999999999</v>
-      </c>
-      <c r="K278">
-        <v>2.5514999999999999</v>
-      </c>
-      <c r="L278">
-        <v>2.33575</v>
-      </c>
-      <c r="M278">
-        <v>2.1404999999999998</v>
-      </c>
-      <c r="N278">
-        <v>2.0409999999999999</v>
-      </c>
-      <c r="O278">
-        <v>2.0554999999999999</v>
-      </c>
-      <c r="P278">
-        <v>2.1237499999999998</v>
-      </c>
-      <c r="Q278">
-        <v>2.1644999999999999</v>
-      </c>
-      <c r="R278">
-        <v>2.49125</v>
-      </c>
-      <c r="S278">
-        <v>3.2719999999999998</v>
-      </c>
-      <c r="T278">
-        <v>2.2705000000000002</v>
-      </c>
-      <c r="U278">
-        <v>2.5049999999999999</v>
-      </c>
-      <c r="V278">
-        <v>2.3752499999999999</v>
-      </c>
-      <c r="W278">
-        <v>2.4935</v>
-      </c>
-      <c r="X278">
-        <v>1.8147500000000001</v>
-      </c>
-      <c r="Y278">
-        <v>1.4802500000000001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A279" s="1">
-        <v>100278</v>
-      </c>
-      <c r="B279">
-        <v>1.1094999999999999</v>
-      </c>
-      <c r="C279">
-        <v>1.1915</v>
-      </c>
-      <c r="D279">
-        <v>1.05925</v>
-      </c>
-      <c r="E279">
-        <v>1.1932499999999999</v>
-      </c>
-      <c r="F279">
-        <v>1.18875</v>
-      </c>
-      <c r="G279">
-        <v>1.0575000000000001</v>
-      </c>
-      <c r="H279">
-        <v>1.26475</v>
-      </c>
-      <c r="I279">
-        <v>1.4325000000000001</v>
-      </c>
-      <c r="J279">
-        <v>2.3090000000000002</v>
-      </c>
-      <c r="K279">
-        <v>2.6572499999999999</v>
-      </c>
-      <c r="L279">
-        <v>2.3762500000000002</v>
-      </c>
-      <c r="M279">
-        <v>2.6219999999999999</v>
-      </c>
-      <c r="N279">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="O279">
-        <v>2.4082499999999998</v>
-      </c>
-      <c r="P279">
-        <v>2.4002500000000002</v>
-      </c>
-      <c r="Q279">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="R279">
-        <v>2.48875</v>
-      </c>
-      <c r="S279">
-        <v>2.4670000000000001</v>
-      </c>
-      <c r="T279">
-        <v>2.4217499999999998</v>
-      </c>
-      <c r="U279">
-        <v>2.4677500000000001</v>
-      </c>
-      <c r="V279">
-        <v>2.3820000000000001</v>
-      </c>
-      <c r="W279">
-        <v>2.4845000000000002</v>
-      </c>
-      <c r="X279">
-        <v>2.1847500000000002</v>
-      </c>
-      <c r="Y279">
-        <v>1.2304999999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A280" s="1">
-        <v>100279</v>
-      </c>
-      <c r="B280">
-        <v>1.16425</v>
-      </c>
-      <c r="C280">
-        <v>1.2575000000000001</v>
-      </c>
-      <c r="D280">
-        <v>1.1915</v>
-      </c>
-      <c r="E280">
-        <v>1.2282500000000001</v>
-      </c>
-      <c r="F280">
-        <v>1.3714999999999999</v>
-      </c>
-      <c r="G280">
-        <v>1.1617500000000001</v>
-      </c>
-      <c r="H280">
-        <v>1.1415</v>
-      </c>
-      <c r="I280">
-        <v>1.30925</v>
-      </c>
-      <c r="J280">
-        <v>1.4855</v>
-      </c>
-      <c r="K280">
-        <v>2.4067500000000002</v>
-      </c>
-      <c r="L280">
-        <v>4.0287499999999996</v>
-      </c>
-      <c r="M280">
-        <v>3.4594999999999998</v>
-      </c>
-      <c r="N280">
-        <v>2.7967499999999998</v>
-      </c>
-      <c r="O280">
-        <v>2.262</v>
-      </c>
-      <c r="P280">
-        <v>2.2982499999999999</v>
-      </c>
-      <c r="Q280">
-        <v>2.2805</v>
-      </c>
-      <c r="R280">
-        <v>2.6880000000000002</v>
-      </c>
-      <c r="S280">
-        <v>2.3987500000000002</v>
-      </c>
-      <c r="T280">
-        <v>2.4645000000000001</v>
-      </c>
-      <c r="U280">
-        <v>2.4119999999999999</v>
-      </c>
-      <c r="V280">
-        <v>2.5952500000000001</v>
-      </c>
-      <c r="W280">
-        <v>2.4674999999999998</v>
-      </c>
-      <c r="X280">
-        <v>2.2912499999999998</v>
-      </c>
-      <c r="Y280">
-        <v>1.7092499999999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A281" s="1">
-        <v>100280</v>
-      </c>
-      <c r="B281">
-        <v>1.0987499999999999</v>
-      </c>
-      <c r="C281">
-        <v>1.1532500000000001</v>
-      </c>
-      <c r="D281">
-        <v>1.103</v>
-      </c>
-      <c r="E281">
-        <v>1.2625</v>
-      </c>
-      <c r="F281">
-        <v>1.1445000000000001</v>
-      </c>
-      <c r="G281">
-        <v>1.1125</v>
-      </c>
-      <c r="H281">
-        <v>1.20825</v>
-      </c>
-      <c r="I281">
-        <v>1.10775</v>
-      </c>
-      <c r="J281">
-        <v>2.194</v>
-      </c>
-      <c r="K281">
-        <v>2.3852500000000001</v>
-      </c>
-      <c r="L281">
-        <v>2.4072499999999999</v>
-      </c>
-      <c r="M281">
-        <v>2.6817500000000001</v>
-      </c>
-      <c r="N281">
-        <v>2.8555000000000001</v>
-      </c>
-      <c r="O281">
-        <v>2.07925</v>
-      </c>
-      <c r="P281">
-        <v>2.0997499999999998</v>
-      </c>
-      <c r="Q281">
-        <v>2.0665</v>
-      </c>
-      <c r="R281">
-        <v>2.2280000000000002</v>
-      </c>
-      <c r="S281">
-        <v>3.083499999999999</v>
-      </c>
-      <c r="T281">
-        <v>2.9692500000000002</v>
-      </c>
-      <c r="U281">
-        <v>2.5844999999999998</v>
-      </c>
-      <c r="V281">
-        <v>2.9255</v>
-      </c>
-      <c r="W281">
-        <v>3.0852499999999998</v>
-      </c>
-      <c r="X281">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="Y281">
-        <v>2.1732499999999999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A282" s="1">
-        <v>100281</v>
-      </c>
-      <c r="B282">
-        <v>1.3287500000000001</v>
-      </c>
-      <c r="C282">
-        <v>1.1952499999999999</v>
-      </c>
-      <c r="D282">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="E282">
-        <v>1.0022500000000001</v>
-      </c>
-      <c r="F282">
-        <v>1.1825000000000001</v>
-      </c>
-      <c r="G282">
-        <v>1.11975</v>
-      </c>
-      <c r="H282">
-        <v>1.1915</v>
-      </c>
-      <c r="I282">
-        <v>1.2232499999999999</v>
-      </c>
-      <c r="J282">
-        <v>1.1935</v>
-      </c>
-      <c r="K282">
-        <v>2.08325</v>
-      </c>
-      <c r="L282">
-        <v>2.8864999999999998</v>
-      </c>
-      <c r="M282">
-        <v>2.4602499999999998</v>
-      </c>
-      <c r="N282">
-        <v>2.4855</v>
-      </c>
-      <c r="O282">
-        <v>2.6259999999999999</v>
-      </c>
-      <c r="P282">
-        <v>2.6030000000000002</v>
-      </c>
-      <c r="Q282">
-        <v>3.2155</v>
-      </c>
-      <c r="R282">
-        <v>4.64825</v>
-      </c>
-      <c r="S282">
-        <v>2.8959999999999999</v>
-      </c>
-      <c r="T282">
-        <v>2.80375</v>
-      </c>
-      <c r="U282">
-        <v>2.6535000000000002</v>
-      </c>
-      <c r="V282">
-        <v>2.6739999999999999</v>
-      </c>
-      <c r="W282">
-        <v>4.3007500000000007</v>
-      </c>
-      <c r="X282">
-        <v>2.036</v>
-      </c>
-      <c r="Y282">
-        <v>1.1207499999999999</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Y282">
+  <conditionalFormatting sqref="B2:Y257">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
